--- a/data/pca/factorExposure/factorExposure_2016-01-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-01-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02017425151953395</v>
+        <v>0.01986545414236479</v>
       </c>
       <c r="C2">
-        <v>0.04696532256391689</v>
+        <v>0.04044596971830611</v>
       </c>
       <c r="D2">
-        <v>-0.1044985307707881</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1202127250431781</v>
+      </c>
+      <c r="E2">
+        <v>-0.08853895353849943</v>
+      </c>
+      <c r="F2">
+        <v>0.006422392885562064</v>
+      </c>
+      <c r="G2">
+        <v>-0.02670793552695108</v>
+      </c>
+      <c r="H2">
+        <v>0.1033754300243036</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02188303577897608</v>
+        <v>0.01330525426926659</v>
       </c>
       <c r="C3">
-        <v>0.0653802908553848</v>
+        <v>0.03619765680744455</v>
       </c>
       <c r="D3">
-        <v>-0.1655048780589626</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.08739823582357098</v>
+      </c>
+      <c r="E3">
+        <v>-0.09053082172729046</v>
+      </c>
+      <c r="F3">
+        <v>0.02613385907977999</v>
+      </c>
+      <c r="G3">
+        <v>-0.07628519995741698</v>
+      </c>
+      <c r="H3">
+        <v>0.05696989458717661</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05196817199020635</v>
+        <v>0.056766591422016</v>
       </c>
       <c r="C4">
-        <v>0.04882112685381118</v>
+        <v>0.06525273690956945</v>
       </c>
       <c r="D4">
-        <v>-0.1276054379315065</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1314627751460635</v>
+      </c>
+      <c r="E4">
+        <v>-0.05341761013173333</v>
+      </c>
+      <c r="F4">
+        <v>0.01651036870363743</v>
+      </c>
+      <c r="G4">
+        <v>0.02035810232527138</v>
+      </c>
+      <c r="H4">
+        <v>-0.04051266266141437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04345105529819332</v>
+        <v>0.04155725412765549</v>
       </c>
       <c r="C6">
-        <v>0.0235903592994285</v>
+        <v>0.02797324146837039</v>
       </c>
       <c r="D6">
-        <v>-0.1173244432592866</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1241562415507457</v>
+      </c>
+      <c r="E6">
+        <v>-0.04290725020536737</v>
+      </c>
+      <c r="F6">
+        <v>0.01581185255022128</v>
+      </c>
+      <c r="G6">
+        <v>-0.01099752575468649</v>
+      </c>
+      <c r="H6">
+        <v>0.005240395846017384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02441589567682219</v>
+        <v>0.01853435142129932</v>
       </c>
       <c r="C7">
-        <v>0.01838598715483311</v>
+        <v>0.03176149174888217</v>
       </c>
       <c r="D7">
-        <v>-0.08890079924028339</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09306480333911646</v>
+      </c>
+      <c r="E7">
+        <v>-0.0441408660220635</v>
+      </c>
+      <c r="F7">
+        <v>0.0111611773653377</v>
+      </c>
+      <c r="G7">
+        <v>0.05310296642131445</v>
+      </c>
+      <c r="H7">
+        <v>0.08150146786635827</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009232364740209657</v>
+        <v>0.01015879173170461</v>
       </c>
       <c r="C8">
-        <v>0.03558806892016746</v>
+        <v>0.03672901238507632</v>
       </c>
       <c r="D8">
-        <v>-0.06273584209907891</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0739599718908185</v>
+      </c>
+      <c r="E8">
+        <v>-0.04179140716335902</v>
+      </c>
+      <c r="F8">
+        <v>0.03264686063562065</v>
+      </c>
+      <c r="G8">
+        <v>0.006937741681247572</v>
+      </c>
+      <c r="H8">
+        <v>0.02767869866704708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03836379965694238</v>
+        <v>0.04222209541131933</v>
       </c>
       <c r="C9">
-        <v>0.04093222219429481</v>
+        <v>0.0579463377420302</v>
       </c>
       <c r="D9">
-        <v>-0.1024301801767727</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1135104265904705</v>
+      </c>
+      <c r="E9">
+        <v>-0.04367569377552113</v>
+      </c>
+      <c r="F9">
+        <v>-0.001744906096599436</v>
+      </c>
+      <c r="G9">
+        <v>0.02960600586570316</v>
+      </c>
+      <c r="H9">
+        <v>-0.001317662984678857</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.08888446976620759</v>
+        <v>0.123212023974186</v>
       </c>
       <c r="C10">
-        <v>-0.192930733449005</v>
+        <v>-0.1941801571543591</v>
       </c>
       <c r="D10">
-        <v>-0.008287073402796436</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.003045140025913506</v>
+      </c>
+      <c r="E10">
+        <v>-0.05578504814731185</v>
+      </c>
+      <c r="F10">
+        <v>0.01403229400820618</v>
+      </c>
+      <c r="G10">
+        <v>0.02940169127149566</v>
+      </c>
+      <c r="H10">
+        <v>-0.02074011140966756</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03581180565025623</v>
+        <v>0.0301371491301327</v>
       </c>
       <c r="C11">
-        <v>0.04010140267678469</v>
+        <v>0.04289265371388769</v>
       </c>
       <c r="D11">
-        <v>-0.06602994756267339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.0605674116672811</v>
+      </c>
+      <c r="E11">
+        <v>-0.006980256169690967</v>
+      </c>
+      <c r="F11">
+        <v>0.003105955424365631</v>
+      </c>
+      <c r="G11">
+        <v>0.02815603681184907</v>
+      </c>
+      <c r="H11">
+        <v>0.04627486651011523</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04101063486070706</v>
+        <v>0.03439863819587973</v>
       </c>
       <c r="C12">
-        <v>0.03605974872908817</v>
+        <v>0.04216110021610617</v>
       </c>
       <c r="D12">
-        <v>-0.05774713767135285</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05684936232072884</v>
+      </c>
+      <c r="E12">
+        <v>-0.01818664564890493</v>
+      </c>
+      <c r="F12">
+        <v>-0.002528903852725823</v>
+      </c>
+      <c r="G12">
+        <v>0.02828440201003637</v>
+      </c>
+      <c r="H12">
+        <v>0.05244709037700542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01293532176039291</v>
+        <v>0.01955985007373492</v>
       </c>
       <c r="C13">
-        <v>0.03575011129304957</v>
+        <v>0.04067334895576259</v>
       </c>
       <c r="D13">
-        <v>-0.1309750556481211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1419167502020427</v>
+      </c>
+      <c r="E13">
+        <v>-0.07978681985583712</v>
+      </c>
+      <c r="F13">
+        <v>0.02136377366417959</v>
+      </c>
+      <c r="G13">
+        <v>0.03681278815870135</v>
+      </c>
+      <c r="H13">
+        <v>0.07530948381990503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01298921308775876</v>
+        <v>0.008293748989370226</v>
       </c>
       <c r="C14">
-        <v>0.01682093975825028</v>
+        <v>0.02436947703070247</v>
       </c>
       <c r="D14">
-        <v>-0.08207793426364805</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.08549413516549946</v>
+      </c>
+      <c r="E14">
+        <v>-0.04552077081511169</v>
+      </c>
+      <c r="F14">
+        <v>-0.01378434131347383</v>
+      </c>
+      <c r="G14">
+        <v>0.03077883010744626</v>
+      </c>
+      <c r="H14">
+        <v>0.07775337406089179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.00138268393392433</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.007582529207029734</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.02405261902533639</v>
+      </c>
+      <c r="E15">
+        <v>-0.005274723440639571</v>
+      </c>
+      <c r="F15">
+        <v>-0.002696492207879307</v>
+      </c>
+      <c r="G15">
+        <v>-0.002162192449128882</v>
+      </c>
+      <c r="H15">
+        <v>0.01350352413360087</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03702200396464546</v>
+        <v>0.0313634329173834</v>
       </c>
       <c r="C16">
-        <v>0.04564395628660553</v>
+        <v>0.04534720013426641</v>
       </c>
       <c r="D16">
-        <v>-0.06829507254437089</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06317140531772494</v>
+      </c>
+      <c r="E16">
+        <v>-0.01966161865732633</v>
+      </c>
+      <c r="F16">
+        <v>-0.01120135998678703</v>
+      </c>
+      <c r="G16">
+        <v>0.02544722862385517</v>
+      </c>
+      <c r="H16">
+        <v>0.05188065243562592</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.0128639173643463</v>
+        <v>0.01246475195131298</v>
       </c>
       <c r="C19">
-        <v>0.03051295394046776</v>
+        <v>0.03098915073683041</v>
       </c>
       <c r="D19">
-        <v>-0.1750025396368712</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1347405168863934</v>
+      </c>
+      <c r="E19">
+        <v>-0.07139874220006162</v>
+      </c>
+      <c r="F19">
+        <v>-0.0291938102670988</v>
+      </c>
+      <c r="G19">
+        <v>0.002519760049855851</v>
+      </c>
+      <c r="H19">
+        <v>0.04818906169304001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0195936891434943</v>
+        <v>0.01665305373549244</v>
       </c>
       <c r="C20">
-        <v>0.03150549542961188</v>
+        <v>0.03625762747689481</v>
       </c>
       <c r="D20">
-        <v>-0.0937006231257787</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.09472214832899982</v>
+      </c>
+      <c r="E20">
+        <v>-0.06326416311823921</v>
+      </c>
+      <c r="F20">
+        <v>-0.00721603692419808</v>
+      </c>
+      <c r="G20">
+        <v>0.01897094544738475</v>
+      </c>
+      <c r="H20">
+        <v>0.04223263367741651</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0115684681312833</v>
+        <v>0.01528724144380551</v>
       </c>
       <c r="C21">
-        <v>0.02268597992776971</v>
+        <v>0.03770507796595173</v>
       </c>
       <c r="D21">
-        <v>-0.1317069683486833</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1345804418406238</v>
+      </c>
+      <c r="E21">
+        <v>-0.1014602858989266</v>
+      </c>
+      <c r="F21">
+        <v>-0.01540363376848788</v>
+      </c>
+      <c r="G21">
+        <v>0.0742766083986458</v>
+      </c>
+      <c r="H21">
+        <v>0.07445538771189661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.001755302376648014</v>
+        <v>0.005802989972203264</v>
       </c>
       <c r="C22">
-        <v>0.0113862987122561</v>
+        <v>0.03621942384656129</v>
       </c>
       <c r="D22">
-        <v>-0.04831892940487544</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.115967313225315</v>
+      </c>
+      <c r="E22">
+        <v>-0.03098653241978121</v>
+      </c>
+      <c r="F22">
+        <v>0.07448175348639476</v>
+      </c>
+      <c r="G22">
+        <v>-0.05472699175302887</v>
+      </c>
+      <c r="H22">
+        <v>-0.007993446778874078</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.001707951252031716</v>
+        <v>0.005903472124177168</v>
       </c>
       <c r="C23">
-        <v>0.0112088613384132</v>
+        <v>0.03659155316886267</v>
       </c>
       <c r="D23">
-        <v>-0.04799951931149353</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1152589617806898</v>
+      </c>
+      <c r="E23">
+        <v>-0.03124875358035845</v>
+      </c>
+      <c r="F23">
+        <v>0.07444686405519287</v>
+      </c>
+      <c r="G23">
+        <v>-0.05402474560540842</v>
+      </c>
+      <c r="H23">
+        <v>-0.008454962958508599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03561322336980727</v>
+        <v>0.03285468099350063</v>
       </c>
       <c r="C24">
-        <v>0.04502325969716849</v>
+        <v>0.05283757646173554</v>
       </c>
       <c r="D24">
-        <v>-0.06669390440461735</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.0666641591902543</v>
+      </c>
+      <c r="E24">
+        <v>-0.02490825358871774</v>
+      </c>
+      <c r="F24">
+        <v>-0.009121547687067053</v>
+      </c>
+      <c r="G24">
+        <v>0.04246123927354958</v>
+      </c>
+      <c r="H24">
+        <v>0.05739537262302973</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04357547084660856</v>
+        <v>0.03790649764624161</v>
       </c>
       <c r="C25">
-        <v>0.04657974524044167</v>
+        <v>0.05139073351093554</v>
       </c>
       <c r="D25">
-        <v>-0.06618304382861037</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06117221332509316</v>
+      </c>
+      <c r="E25">
+        <v>-0.02190785827727195</v>
+      </c>
+      <c r="F25">
+        <v>0.004754878786447071</v>
+      </c>
+      <c r="G25">
+        <v>0.03828265145919228</v>
+      </c>
+      <c r="H25">
+        <v>0.04388005243417057</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02260287490537467</v>
+        <v>0.02112842101051862</v>
       </c>
       <c r="C26">
-        <v>0.009265440363597117</v>
+        <v>0.01802821137660282</v>
       </c>
       <c r="D26">
-        <v>-0.05737399587268971</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06476159382815554</v>
+      </c>
+      <c r="E26">
+        <v>-0.03212058775890172</v>
+      </c>
+      <c r="F26">
+        <v>-0.005625547823424459</v>
+      </c>
+      <c r="G26">
+        <v>0.018868862184437</v>
+      </c>
+      <c r="H26">
+        <v>0.04895501353195062</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1207116816359831</v>
+        <v>0.1731026304277958</v>
       </c>
       <c r="C28">
-        <v>-0.2820659513250474</v>
+        <v>-0.2611128752413555</v>
       </c>
       <c r="D28">
-        <v>0.03346018192969565</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01162366035902919</v>
+      </c>
+      <c r="E28">
+        <v>-0.07479357282057122</v>
+      </c>
+      <c r="F28">
+        <v>0.004568920602470935</v>
+      </c>
+      <c r="G28">
+        <v>0.06798731509274894</v>
+      </c>
+      <c r="H28">
+        <v>-0.02236777859399668</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.006156967772791691</v>
+        <v>0.007346826903573307</v>
       </c>
       <c r="C29">
-        <v>0.01820130757322721</v>
+        <v>0.02280433644629958</v>
       </c>
       <c r="D29">
-        <v>-0.06607413087431151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.07868177333579716</v>
+      </c>
+      <c r="E29">
+        <v>-0.04944719446418561</v>
+      </c>
+      <c r="F29">
+        <v>0.000656822431816967</v>
+      </c>
+      <c r="G29">
+        <v>0.04239623309655477</v>
+      </c>
+      <c r="H29">
+        <v>0.0717579660438441</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04237759457340631</v>
+        <v>0.04473602423918521</v>
       </c>
       <c r="C30">
-        <v>0.03055174400430369</v>
+        <v>0.05637021890431728</v>
       </c>
       <c r="D30">
-        <v>-0.1482219367002288</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1697008683780588</v>
+      </c>
+      <c r="E30">
+        <v>-0.0312118026308555</v>
+      </c>
+      <c r="F30">
+        <v>-0.001528271169826503</v>
+      </c>
+      <c r="G30">
+        <v>-0.01919086831040234</v>
+      </c>
+      <c r="H30">
+        <v>0.01643514815106558</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06485871290813572</v>
+        <v>0.05945237627818631</v>
       </c>
       <c r="C31">
-        <v>0.04973802369434624</v>
+        <v>0.07102473826158687</v>
       </c>
       <c r="D31">
-        <v>-0.06580821876762051</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.05450136006524538</v>
+      </c>
+      <c r="E31">
+        <v>-0.04862369545211919</v>
+      </c>
+      <c r="F31">
+        <v>0.03788875762977645</v>
+      </c>
+      <c r="G31">
+        <v>0.02841269275082738</v>
+      </c>
+      <c r="H31">
+        <v>0.0219820149826968</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.002728480692806549</v>
+        <v>0.01173154661983219</v>
       </c>
       <c r="C32">
-        <v>0.001532655799693993</v>
+        <v>0.01950932102363697</v>
       </c>
       <c r="D32">
-        <v>-0.07356548564254475</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.09504927755993474</v>
+      </c>
+      <c r="E32">
+        <v>-0.09359488632928288</v>
+      </c>
+      <c r="F32">
+        <v>-0.002752228934225177</v>
+      </c>
+      <c r="G32">
+        <v>0.06990257028532662</v>
+      </c>
+      <c r="H32">
+        <v>0.05531907493978791</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02732607264597527</v>
+        <v>0.02535112116356915</v>
       </c>
       <c r="C33">
-        <v>0.03062965309527644</v>
+        <v>0.04549781192901281</v>
       </c>
       <c r="D33">
-        <v>-0.1379029879328893</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1340738701934919</v>
+      </c>
+      <c r="E33">
+        <v>-0.05572280508563351</v>
+      </c>
+      <c r="F33">
+        <v>0.01364872615547809</v>
+      </c>
+      <c r="G33">
+        <v>0.03270905847865535</v>
+      </c>
+      <c r="H33">
+        <v>0.05263290461458085</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03547931654564097</v>
+        <v>0.0313823406227602</v>
       </c>
       <c r="C34">
-        <v>0.05762267818839519</v>
+        <v>0.05954499474254712</v>
       </c>
       <c r="D34">
-        <v>-0.06734291072002961</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.0600716068005414</v>
+      </c>
+      <c r="E34">
+        <v>-0.002751609714459385</v>
+      </c>
+      <c r="F34">
+        <v>-0.007611725256521685</v>
+      </c>
+      <c r="G34">
+        <v>0.04264223495667813</v>
+      </c>
+      <c r="H34">
+        <v>0.06155505873056911</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0004439171757416823</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0001586504211729204</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.002484782979656544</v>
+      </c>
+      <c r="E35">
+        <v>-0.0003684563205254505</v>
+      </c>
+      <c r="F35">
+        <v>0.0002894320724689417</v>
+      </c>
+      <c r="G35">
+        <v>0.0007809943507783415</v>
+      </c>
+      <c r="H35">
+        <v>0.00235676580208573</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01842067051499428</v>
+        <v>0.01801978512928493</v>
       </c>
       <c r="C36">
-        <v>0.004848154962543112</v>
+        <v>0.01570729436846266</v>
       </c>
       <c r="D36">
-        <v>-0.07325767022728147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.07635936126303947</v>
+      </c>
+      <c r="E36">
+        <v>-0.04389960057552283</v>
+      </c>
+      <c r="F36">
+        <v>-0.004688918362773391</v>
+      </c>
+      <c r="G36">
+        <v>0.02983412135810691</v>
+      </c>
+      <c r="H36">
+        <v>0.03894521969678248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02949402850275291</v>
+        <v>0.02458225877380593</v>
       </c>
       <c r="C38">
-        <v>0.02155554636710328</v>
+        <v>0.02444385844767424</v>
       </c>
       <c r="D38">
-        <v>-0.05511046061385282</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.06159703478149869</v>
+      </c>
+      <c r="E38">
+        <v>-0.04095273108698406</v>
+      </c>
+      <c r="F38">
+        <v>-0.003580920521032451</v>
+      </c>
+      <c r="G38">
+        <v>-0.0260369684270633</v>
+      </c>
+      <c r="H38">
+        <v>0.03516495312763845</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04482023999117534</v>
+        <v>0.0395588480119211</v>
       </c>
       <c r="C39">
-        <v>0.05662300204355232</v>
+        <v>0.06429224015904877</v>
       </c>
       <c r="D39">
-        <v>-0.08480244356713454</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1004750284645736</v>
+      </c>
+      <c r="E39">
+        <v>-0.0222698812985208</v>
+      </c>
+      <c r="F39">
+        <v>-0.02409121986583507</v>
+      </c>
+      <c r="G39">
+        <v>0.02830836017763467</v>
+      </c>
+      <c r="H39">
+        <v>0.07610993772868173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01729062037954303</v>
+        <v>0.01605324499327594</v>
       </c>
       <c r="C40">
-        <v>0.0472417967659079</v>
+        <v>0.04050134935079094</v>
       </c>
       <c r="D40">
-        <v>-0.08322848942585978</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.09546745129506265</v>
+      </c>
+      <c r="E40">
+        <v>-0.08756932090598527</v>
+      </c>
+      <c r="F40">
+        <v>0.04832043371260965</v>
+      </c>
+      <c r="G40">
+        <v>0.0218057602316523</v>
+      </c>
+      <c r="H40">
+        <v>0.1377009535537812</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02410181224495973</v>
+        <v>0.02272568745488334</v>
       </c>
       <c r="C41">
-        <v>-0.003067687762182809</v>
+        <v>0.009013611663216296</v>
       </c>
       <c r="D41">
-        <v>-0.0790705912191976</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.06146005670978857</v>
+      </c>
+      <c r="E41">
+        <v>-0.05855282558402131</v>
+      </c>
+      <c r="F41">
+        <v>-0.005222713857695063</v>
+      </c>
+      <c r="G41">
+        <v>0.01642206964913652</v>
+      </c>
+      <c r="H41">
+        <v>0.03722919005923226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.03564015336564831</v>
+        <v>0.02663559820885255</v>
       </c>
       <c r="C43">
-        <v>0.01096446933300844</v>
+        <v>0.0209300317056756</v>
       </c>
       <c r="D43">
-        <v>-0.1218064284099675</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.09375112692288469</v>
+      </c>
+      <c r="E43">
+        <v>-0.04601359610743324</v>
+      </c>
+      <c r="F43">
+        <v>0.001430255363005213</v>
+      </c>
+      <c r="G43">
+        <v>0.02307793417209918</v>
+      </c>
+      <c r="H43">
+        <v>0.05361923959280993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01376135506070893</v>
+        <v>0.01815221505445681</v>
       </c>
       <c r="C44">
-        <v>0.04576651419625855</v>
+        <v>0.04294765687808264</v>
       </c>
       <c r="D44">
-        <v>-0.08036239621173914</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.094437682791314</v>
+      </c>
+      <c r="E44">
+        <v>-0.07906208038967211</v>
+      </c>
+      <c r="F44">
+        <v>-0.007606495473675957</v>
+      </c>
+      <c r="G44">
+        <v>0.03586312302564562</v>
+      </c>
+      <c r="H44">
+        <v>0.05511491151869245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0193833551182806</v>
+        <v>0.01574220282642445</v>
       </c>
       <c r="C46">
-        <v>0.01422896151102221</v>
+        <v>0.02913689723187184</v>
       </c>
       <c r="D46">
-        <v>-0.06876627077430396</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.08294835904050583</v>
+      </c>
+      <c r="E46">
+        <v>-0.05089873860431892</v>
+      </c>
+      <c r="F46">
+        <v>-0.02032381594507745</v>
+      </c>
+      <c r="G46">
+        <v>0.05280059219436922</v>
+      </c>
+      <c r="H46">
+        <v>0.07378015612708619</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09394018217535466</v>
+        <v>0.09025161972565733</v>
       </c>
       <c r="C47">
-        <v>0.06619506932123269</v>
+        <v>0.08822424336687494</v>
       </c>
       <c r="D47">
-        <v>-0.03614732410422847</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03172949579354706</v>
+      </c>
+      <c r="E47">
+        <v>-0.03974183826241772</v>
+      </c>
+      <c r="F47">
+        <v>0.02419309779856692</v>
+      </c>
+      <c r="G47">
+        <v>0.05327523310625136</v>
+      </c>
+      <c r="H47">
+        <v>-0.01340856996926265</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02134216560276175</v>
+        <v>0.01979539978426264</v>
       </c>
       <c r="C48">
-        <v>0.005803799218385884</v>
+        <v>0.01894067213560556</v>
       </c>
       <c r="D48">
-        <v>-0.07371406981737734</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07840667642704739</v>
+      </c>
+      <c r="E48">
+        <v>-0.05679687957173948</v>
+      </c>
+      <c r="F48">
+        <v>-0.01848156347724629</v>
+      </c>
+      <c r="G48">
+        <v>0.03159707475124034</v>
+      </c>
+      <c r="H48">
+        <v>0.04074789046643364</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07625561090897447</v>
+        <v>0.06539858827765418</v>
       </c>
       <c r="C50">
-        <v>0.06749704381140174</v>
+        <v>0.07049240291479832</v>
       </c>
       <c r="D50">
-        <v>-0.06254027578778042</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05780303336171609</v>
+      </c>
+      <c r="E50">
+        <v>-0.05039433826772153</v>
+      </c>
+      <c r="F50">
+        <v>0.04050643906873157</v>
+      </c>
+      <c r="G50">
+        <v>0.007132305194158245</v>
+      </c>
+      <c r="H50">
+        <v>0.03110293782077733</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01156830348496161</v>
+        <v>0.01011413992188113</v>
       </c>
       <c r="C51">
-        <v>0.02648604536254269</v>
+        <v>0.02088650666412998</v>
       </c>
       <c r="D51">
-        <v>-0.09435497798581799</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.09330271691636334</v>
+      </c>
+      <c r="E51">
+        <v>-0.03575164529200598</v>
+      </c>
+      <c r="F51">
+        <v>-0.007417220878863325</v>
+      </c>
+      <c r="G51">
+        <v>0.01657190989335288</v>
+      </c>
+      <c r="H51">
+        <v>0.0726963615589694</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.07839281943658603</v>
+        <v>0.09181546936932192</v>
       </c>
       <c r="C53">
-        <v>0.08132045471129873</v>
+        <v>0.09593932328951704</v>
       </c>
       <c r="D53">
-        <v>-0.02157640922327851</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.002517790113437304</v>
+      </c>
+      <c r="E53">
+        <v>-0.1015517432665109</v>
+      </c>
+      <c r="F53">
+        <v>0.02624626419713476</v>
+      </c>
+      <c r="G53">
+        <v>0.07463091391909407</v>
+      </c>
+      <c r="H53">
+        <v>-0.05783786119983241</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.03416758985942656</v>
+        <v>0.02806192086131389</v>
       </c>
       <c r="C54">
-        <v>0.0249199083930175</v>
+        <v>0.03392569775790068</v>
       </c>
       <c r="D54">
-        <v>-0.08057463530758924</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.08773691829396081</v>
+      </c>
+      <c r="E54">
+        <v>-0.05205332246376859</v>
+      </c>
+      <c r="F54">
+        <v>-0.02227468060081296</v>
+      </c>
+      <c r="G54">
+        <v>0.03400248773266101</v>
+      </c>
+      <c r="H54">
+        <v>0.09733223256520483</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.0858641334245971</v>
+        <v>0.088763587249565</v>
       </c>
       <c r="C55">
-        <v>0.06187226155418277</v>
+        <v>0.07830592562275461</v>
       </c>
       <c r="D55">
-        <v>-0.004561847352398276</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01285040200550262</v>
+      </c>
+      <c r="E55">
+        <v>-0.06307279551350368</v>
+      </c>
+      <c r="F55">
+        <v>0.0319085164076123</v>
+      </c>
+      <c r="G55">
+        <v>0.02600263494796158</v>
+      </c>
+      <c r="H55">
+        <v>-0.03920015150784917</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1382783445037003</v>
+        <v>0.1405824522835172</v>
       </c>
       <c r="C56">
-        <v>0.09480999863888832</v>
+        <v>0.1189183828018919</v>
       </c>
       <c r="D56">
-        <v>-0.009962763671861058</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01532921748107002</v>
+      </c>
+      <c r="E56">
+        <v>-0.05603025675979115</v>
+      </c>
+      <c r="F56">
+        <v>0.01811077352053979</v>
+      </c>
+      <c r="G56">
+        <v>0.04421236325490143</v>
+      </c>
+      <c r="H56">
+        <v>-0.04245077863500329</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.0416206734243698</v>
+        <v>0.04064849134649026</v>
       </c>
       <c r="C58">
-        <v>-0.01173191436209501</v>
+        <v>0.0240087811559965</v>
       </c>
       <c r="D58">
-        <v>-0.4369840276377326</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3783576189481217</v>
+      </c>
+      <c r="E58">
+        <v>-0.2155772108138793</v>
+      </c>
+      <c r="F58">
+        <v>0.1116920603431041</v>
+      </c>
+      <c r="G58">
+        <v>-0.4639094058912231</v>
+      </c>
+      <c r="H58">
+        <v>-0.2536039506340832</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1344698198988338</v>
+        <v>0.1619461683963609</v>
       </c>
       <c r="C59">
-        <v>-0.2087753700219679</v>
+        <v>-0.1819254756661441</v>
       </c>
       <c r="D59">
-        <v>-0.01677824729983242</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.04148837889699742</v>
+      </c>
+      <c r="E59">
+        <v>-0.0133410718516833</v>
+      </c>
+      <c r="F59">
+        <v>-0.03250708284303444</v>
+      </c>
+      <c r="G59">
+        <v>-0.01559208095136335</v>
+      </c>
+      <c r="H59">
+        <v>-0.01972305106775488</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.260715184654816</v>
+        <v>0.2382322412667491</v>
       </c>
       <c r="C60">
-        <v>0.07475186173791838</v>
+        <v>0.09293732023814302</v>
       </c>
       <c r="D60">
-        <v>-0.09641973322194501</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1128261071296774</v>
+      </c>
+      <c r="E60">
+        <v>0.361768561348434</v>
+      </c>
+      <c r="F60">
+        <v>0.102517834367618</v>
+      </c>
+      <c r="G60">
+        <v>-0.02005788638762319</v>
+      </c>
+      <c r="H60">
+        <v>-0.06930574984624917</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04816211653952707</v>
+        <v>0.04283858390342601</v>
       </c>
       <c r="C61">
-        <v>0.04936301347244145</v>
+        <v>0.05666960007839155</v>
       </c>
       <c r="D61">
-        <v>-0.09497942583641633</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09168173681235654</v>
+      </c>
+      <c r="E61">
+        <v>-0.02060330634149302</v>
+      </c>
+      <c r="F61">
+        <v>-0.01275910570819338</v>
+      </c>
+      <c r="G61">
+        <v>0.0425318205225319</v>
+      </c>
+      <c r="H61">
+        <v>0.06292676123266445</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01537885699639626</v>
+        <v>0.01601996093452853</v>
       </c>
       <c r="C63">
-        <v>0.01524233540106214</v>
+        <v>0.02697500962443452</v>
       </c>
       <c r="D63">
-        <v>-0.05576184298781924</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06953720233772379</v>
+      </c>
+      <c r="E63">
+        <v>-0.0534397452326489</v>
+      </c>
+      <c r="F63">
+        <v>0.02211757894979486</v>
+      </c>
+      <c r="G63">
+        <v>0.01397903934154023</v>
+      </c>
+      <c r="H63">
+        <v>0.03424559075443921</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05507115996398445</v>
+        <v>0.05634412874305583</v>
       </c>
       <c r="C64">
-        <v>0.05499214816449094</v>
+        <v>0.07107948937699278</v>
       </c>
       <c r="D64">
-        <v>-0.06390500765628444</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05276349101143831</v>
+      </c>
+      <c r="E64">
+        <v>-0.04296063994752136</v>
+      </c>
+      <c r="F64">
+        <v>-0.02461021083623139</v>
+      </c>
+      <c r="G64">
+        <v>0.06755160177405432</v>
+      </c>
+      <c r="H64">
+        <v>0.02108932762135854</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.06162125392418962</v>
+        <v>0.054195831138135</v>
       </c>
       <c r="C65">
-        <v>0.01173566399425346</v>
+        <v>0.02308038654415086</v>
       </c>
       <c r="D65">
-        <v>-0.1011427857502945</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1094915801708892</v>
+      </c>
+      <c r="E65">
+        <v>-0.01116498836384739</v>
+      </c>
+      <c r="F65">
+        <v>0.02522219758983597</v>
+      </c>
+      <c r="G65">
+        <v>-0.05002072686848757</v>
+      </c>
+      <c r="H65">
+        <v>-0.01873502772224262</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04855964753444447</v>
+        <v>0.04673487675955863</v>
       </c>
       <c r="C66">
-        <v>0.05558796897296927</v>
+        <v>0.07001175968388985</v>
       </c>
       <c r="D66">
-        <v>-0.1121933920295066</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1245633221389259</v>
+      </c>
+      <c r="E66">
+        <v>-0.0228337186214876</v>
+      </c>
+      <c r="F66">
+        <v>-0.01405689145653936</v>
+      </c>
+      <c r="G66">
+        <v>0.01738056395617324</v>
+      </c>
+      <c r="H66">
+        <v>0.05675010273531143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.0494814395676015</v>
+        <v>0.04101846524722406</v>
       </c>
       <c r="C67">
-        <v>0.02877483023484827</v>
+        <v>0.02945275675666663</v>
       </c>
       <c r="D67">
-        <v>-0.03088796255787851</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.02717570446048822</v>
+      </c>
+      <c r="E67">
+        <v>-0.0221881239225805</v>
+      </c>
+      <c r="F67">
+        <v>0.00207694208649568</v>
+      </c>
+      <c r="G67">
+        <v>-0.01744430152206098</v>
+      </c>
+      <c r="H67">
+        <v>0.03474773615033259</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1507692826556025</v>
+        <v>0.1773640004642923</v>
       </c>
       <c r="C68">
-        <v>-0.2833148425405609</v>
+        <v>-0.2301705791220131</v>
       </c>
       <c r="D68">
-        <v>0.03746761527514271</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.003226682162831205</v>
+      </c>
+      <c r="E68">
+        <v>-0.05222747711967611</v>
+      </c>
+      <c r="F68">
+        <v>0.02610981659391146</v>
+      </c>
+      <c r="G68">
+        <v>-0.004548285384826619</v>
+      </c>
+      <c r="H68">
+        <v>-0.002579782387770977</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08883014813081275</v>
+        <v>0.08277768968036392</v>
       </c>
       <c r="C69">
-        <v>0.0765274445005108</v>
+        <v>0.09709712266481893</v>
       </c>
       <c r="D69">
-        <v>-0.0465390251777411</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04578116553826446</v>
+      </c>
+      <c r="E69">
+        <v>-0.03328022702598891</v>
+      </c>
+      <c r="F69">
+        <v>4.959761448102969e-05</v>
+      </c>
+      <c r="G69">
+        <v>0.05118665017088162</v>
+      </c>
+      <c r="H69">
+        <v>0.006393204665258704</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1278728035429616</v>
+        <v>0.1658124951625948</v>
       </c>
       <c r="C71">
-        <v>-0.259302985890513</v>
+        <v>-0.2314582683632242</v>
       </c>
       <c r="D71">
-        <v>-0.02563691443221328</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03657890397138119</v>
+      </c>
+      <c r="E71">
+        <v>-0.05170756379949976</v>
+      </c>
+      <c r="F71">
+        <v>0.01903660528809381</v>
+      </c>
+      <c r="G71">
+        <v>0.04168277132409057</v>
+      </c>
+      <c r="H71">
+        <v>0.005047705736865369</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09769020057681087</v>
+        <v>0.1029813601047668</v>
       </c>
       <c r="C72">
-        <v>0.0460294002885962</v>
+        <v>0.06088388688948542</v>
       </c>
       <c r="D72">
-        <v>-0.0813743764143588</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.09062223522639704</v>
+      </c>
+      <c r="E72">
+        <v>0.01621317833652442</v>
+      </c>
+      <c r="F72">
+        <v>0.02790347649246048</v>
+      </c>
+      <c r="G72">
+        <v>0.05277961523317697</v>
+      </c>
+      <c r="H72">
+        <v>0.01762140718464262</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.3144433185901988</v>
+        <v>0.2761123934908607</v>
       </c>
       <c r="C73">
-        <v>0.02490408914406638</v>
+        <v>0.06898065783927669</v>
       </c>
       <c r="D73">
-        <v>-0.1989888059997182</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.2000416623371609</v>
+      </c>
+      <c r="E73">
+        <v>0.6647129180657204</v>
+      </c>
+      <c r="F73">
+        <v>0.1053157105931392</v>
+      </c>
+      <c r="G73">
+        <v>-0.07253701946250629</v>
+      </c>
+      <c r="H73">
+        <v>-0.07838089499383137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1067844733305822</v>
+        <v>0.1074290068044454</v>
       </c>
       <c r="C74">
-        <v>0.07120269536953733</v>
+        <v>0.0885185399320023</v>
       </c>
       <c r="D74">
-        <v>-0.0334238489728549</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.004007629165968405</v>
+      </c>
+      <c r="E74">
+        <v>-0.0774886859842734</v>
+      </c>
+      <c r="F74">
+        <v>0.04320914995164229</v>
+      </c>
+      <c r="G74">
+        <v>0.03350865002855328</v>
+      </c>
+      <c r="H74">
+        <v>-0.07992730011428162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2500037203286092</v>
+        <v>0.246240476350657</v>
       </c>
       <c r="C75">
-        <v>0.1165926733517335</v>
+        <v>0.1508164135529403</v>
       </c>
       <c r="D75">
-        <v>0.07033456941688548</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1191653805653746</v>
+      </c>
+      <c r="E75">
+        <v>-0.07306622304356716</v>
+      </c>
+      <c r="F75">
+        <v>-0.0178494631009727</v>
+      </c>
+      <c r="G75">
+        <v>0.01902420733651878</v>
+      </c>
+      <c r="H75">
+        <v>-0.1620354179166222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1213049488660964</v>
+        <v>0.1282368738914189</v>
       </c>
       <c r="C76">
-        <v>0.08178460922165103</v>
+        <v>0.104442520675346</v>
       </c>
       <c r="D76">
-        <v>0.0002825389237876255</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.02547637976935185</v>
+      </c>
+      <c r="E76">
+        <v>-0.1173919373529602</v>
+      </c>
+      <c r="F76">
+        <v>0.0110792174626303</v>
+      </c>
+      <c r="G76">
+        <v>0.04964472617970738</v>
+      </c>
+      <c r="H76">
+        <v>-0.04522337913886934</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.08187047811406299</v>
+        <v>0.06957864235492808</v>
       </c>
       <c r="C77">
-        <v>0.02446644547339068</v>
+        <v>0.06998730673664344</v>
       </c>
       <c r="D77">
-        <v>-0.1152124459659384</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1181379931987648</v>
+      </c>
+      <c r="E77">
+        <v>-0.09891673968998889</v>
+      </c>
+      <c r="F77">
+        <v>-0.2914929458997783</v>
+      </c>
+      <c r="G77">
+        <v>-0.1653614571551349</v>
+      </c>
+      <c r="H77">
+        <v>-0.08533093916549019</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03686865999567688</v>
+        <v>0.04234552653413932</v>
       </c>
       <c r="C78">
-        <v>0.0394043853124384</v>
+        <v>0.06033412350003158</v>
       </c>
       <c r="D78">
-        <v>-0.09340978676809444</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1198760456040385</v>
+      </c>
+      <c r="E78">
+        <v>-0.03219455736161035</v>
+      </c>
+      <c r="F78">
+        <v>0.01670060191473112</v>
+      </c>
+      <c r="G78">
+        <v>0.03899065358351615</v>
+      </c>
+      <c r="H78">
+        <v>0.02634173991157309</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.002928123706426154</v>
+        <v>0.04093183581797491</v>
       </c>
       <c r="C79">
-        <v>-0.002521649415781437</v>
+        <v>0.07295022922003272</v>
       </c>
       <c r="D79">
-        <v>-0.01483458511403512</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05009620050523047</v>
+      </c>
+      <c r="E79">
+        <v>-0.1560241986401123</v>
+      </c>
+      <c r="F79">
+        <v>0.07383593141137876</v>
+      </c>
+      <c r="G79">
+        <v>0.3583207166540501</v>
+      </c>
+      <c r="H79">
+        <v>-0.6883862169354923</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03373858979996501</v>
+        <v>0.0276792876912194</v>
       </c>
       <c r="C80">
-        <v>0.0291081696504999</v>
+        <v>0.04121064296276671</v>
       </c>
       <c r="D80">
-        <v>-0.04025800008248914</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03680494510773408</v>
+      </c>
+      <c r="E80">
+        <v>-0.01208310741055791</v>
+      </c>
+      <c r="F80">
+        <v>-0.03647075601249414</v>
+      </c>
+      <c r="G80">
+        <v>-0.0274451857710253</v>
+      </c>
+      <c r="H80">
+        <v>0.04439559011108152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1466843173280048</v>
+        <v>0.1357236461406454</v>
       </c>
       <c r="C81">
-        <v>0.08063634745289117</v>
+        <v>0.1084838232367608</v>
       </c>
       <c r="D81">
-        <v>0.03520912306388062</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07522624483109169</v>
+      </c>
+      <c r="E81">
+        <v>-0.1098006694840125</v>
+      </c>
+      <c r="F81">
+        <v>0.0004152086267794518</v>
+      </c>
+      <c r="G81">
+        <v>0.03551236634583046</v>
+      </c>
+      <c r="H81">
+        <v>-0.06770630796729413</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2790058056392529</v>
+        <v>0.2507829302194329</v>
       </c>
       <c r="C82">
-        <v>0.2177567607548817</v>
+        <v>0.2187609728834184</v>
       </c>
       <c r="D82">
-        <v>0.2415418294605557</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2403779383584911</v>
+      </c>
+      <c r="E82">
+        <v>0.008082812227969307</v>
+      </c>
+      <c r="F82">
+        <v>0.02625269928248326</v>
+      </c>
+      <c r="G82">
+        <v>0.4191961832739611</v>
+      </c>
+      <c r="H82">
+        <v>0.3940711350400832</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.04172012633497977</v>
+        <v>0.02696669823750733</v>
       </c>
       <c r="C83">
-        <v>0.03608973514314975</v>
+        <v>0.05077549206466458</v>
       </c>
       <c r="D83">
-        <v>-0.07361943806403029</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05288937383847966</v>
+      </c>
+      <c r="E83">
+        <v>-0.004019085270915016</v>
+      </c>
+      <c r="F83">
+        <v>-0.02382008581074157</v>
+      </c>
+      <c r="G83">
+        <v>0.006102494362110909</v>
+      </c>
+      <c r="H83">
+        <v>0.03075580356147272</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0004660978720336878</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.003196095286226261</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.007039037378197114</v>
+      </c>
+      <c r="E84">
+        <v>-0.01144150742778833</v>
+      </c>
+      <c r="F84">
+        <v>0.004190776423401512</v>
+      </c>
+      <c r="G84">
+        <v>-0.004988098015958737</v>
+      </c>
+      <c r="H84">
+        <v>0.007712268046696495</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1846968842613149</v>
+        <v>0.169667766937717</v>
       </c>
       <c r="C85">
-        <v>0.09428272759291531</v>
+        <v>0.1199841451655215</v>
       </c>
       <c r="D85">
-        <v>0.05271387349103182</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.08244576706245824</v>
+      </c>
+      <c r="E85">
+        <v>-0.03981240926451277</v>
+      </c>
+      <c r="F85">
+        <v>0.02837785925228239</v>
+      </c>
+      <c r="G85">
+        <v>0.0614305611624552</v>
+      </c>
+      <c r="H85">
+        <v>-0.1465767893619751</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01509155812326235</v>
+        <v>0.0210877785267122</v>
       </c>
       <c r="C86">
-        <v>0.02084663786077237</v>
+        <v>0.0164969657090192</v>
       </c>
       <c r="D86">
-        <v>-0.1356685188723656</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1204570020123427</v>
+      </c>
+      <c r="E86">
+        <v>-0.02588881189244471</v>
+      </c>
+      <c r="F86">
+        <v>-0.01024612623301123</v>
+      </c>
+      <c r="G86">
+        <v>0.04504813134368947</v>
+      </c>
+      <c r="H86">
+        <v>0.0652986726500031</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03151915821398829</v>
+        <v>0.03532076765083501</v>
       </c>
       <c r="C87">
-        <v>0.003818556631423097</v>
+        <v>0.02582033318894152</v>
       </c>
       <c r="D87">
-        <v>-0.1112445022040776</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.132722290271764</v>
+      </c>
+      <c r="E87">
+        <v>-0.09355063126498578</v>
+      </c>
+      <c r="F87">
+        <v>-0.02771314499636391</v>
+      </c>
+      <c r="G87">
+        <v>0.007532795638515896</v>
+      </c>
+      <c r="H87">
+        <v>0.02989724022230344</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.08886414555245221</v>
+        <v>0.0784579777014426</v>
       </c>
       <c r="C88">
-        <v>0.06205027134306751</v>
+        <v>0.06494124949848371</v>
       </c>
       <c r="D88">
-        <v>-0.07091386563154027</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04102449403812144</v>
+      </c>
+      <c r="E88">
+        <v>-0.04095487233660806</v>
+      </c>
+      <c r="F88">
+        <v>-0.009624404245581522</v>
+      </c>
+      <c r="G88">
+        <v>0.02599358061622207</v>
+      </c>
+      <c r="H88">
+        <v>0.02022461528350565</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1978605013456438</v>
+        <v>0.2481820568475142</v>
       </c>
       <c r="C89">
-        <v>-0.3634338835359111</v>
+        <v>-0.3570777741060024</v>
       </c>
       <c r="D89">
-        <v>0.02663730875053121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.004981041096736974</v>
+      </c>
+      <c r="E89">
+        <v>-0.07924838803549203</v>
+      </c>
+      <c r="F89">
+        <v>-0.04551192889391083</v>
+      </c>
+      <c r="G89">
+        <v>0.03722656011079942</v>
+      </c>
+      <c r="H89">
+        <v>0.03558506022635689</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1896056786216206</v>
+        <v>0.2232941119875891</v>
       </c>
       <c r="C90">
-        <v>-0.3014848225226344</v>
+        <v>-0.2747646919735289</v>
       </c>
       <c r="D90">
-        <v>0.02115746532777785</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01805849386672729</v>
+      </c>
+      <c r="E90">
+        <v>-0.05492913254317749</v>
+      </c>
+      <c r="F90">
+        <v>0.0001406896813134547</v>
+      </c>
+      <c r="G90">
+        <v>-0.008394115910675475</v>
+      </c>
+      <c r="H90">
+        <v>0.06689155748400702</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1861191867666008</v>
+        <v>0.1760810083359502</v>
       </c>
       <c r="C91">
-        <v>0.1460927549565549</v>
+        <v>0.1593111312982708</v>
       </c>
       <c r="D91">
-        <v>0.04190845584925219</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08434168078206657</v>
+      </c>
+      <c r="E91">
+        <v>-0.09444690859137755</v>
+      </c>
+      <c r="F91">
+        <v>0.01834179241943793</v>
+      </c>
+      <c r="G91">
+        <v>0.02725094236401491</v>
+      </c>
+      <c r="H91">
+        <v>-0.158137704307167</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1665777010590665</v>
+        <v>0.2011576112672242</v>
       </c>
       <c r="C92">
-        <v>-0.2926280653969434</v>
+        <v>-0.2879223993484327</v>
       </c>
       <c r="D92">
-        <v>-0.04314204425244722</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01822766469156681</v>
+      </c>
+      <c r="E92">
+        <v>-0.06491825101171685</v>
+      </c>
+      <c r="F92">
+        <v>-0.04531751559568013</v>
+      </c>
+      <c r="G92">
+        <v>0.01872834633225322</v>
+      </c>
+      <c r="H92">
+        <v>0.01817174416436367</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2140116244738144</v>
+        <v>0.2449064556011609</v>
       </c>
       <c r="C93">
-        <v>-0.3241826716113052</v>
+        <v>-0.2935493601132481</v>
       </c>
       <c r="D93">
-        <v>0.005649804009568757</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.003795756945655754</v>
+      </c>
+      <c r="E93">
+        <v>-0.03554707582486792</v>
+      </c>
+      <c r="F93">
+        <v>0.03115578656821161</v>
+      </c>
+      <c r="G93">
+        <v>0.02304315935316295</v>
+      </c>
+      <c r="H93">
+        <v>0.01066009184676123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3969578569512993</v>
+        <v>0.3468155306204928</v>
       </c>
       <c r="C94">
-        <v>0.2331706922104405</v>
+        <v>0.2343085480668556</v>
       </c>
       <c r="D94">
-        <v>0.451947180711361</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4402370553022176</v>
+      </c>
+      <c r="E94">
+        <v>-0.1317483917808976</v>
+      </c>
+      <c r="F94">
+        <v>-0.02603054822149271</v>
+      </c>
+      <c r="G94">
+        <v>-0.5827569938469476</v>
+      </c>
+      <c r="H94">
+        <v>0.1438252717080422</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.09829870959774049</v>
+        <v>0.07572802951489994</v>
       </c>
       <c r="C95">
-        <v>-0.0004522119036680782</v>
+        <v>0.04854825496786148</v>
       </c>
       <c r="D95">
-        <v>-0.06846084916553143</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.07703841735982955</v>
+      </c>
+      <c r="E95">
+        <v>0.125478557095293</v>
+      </c>
+      <c r="F95">
+        <v>-0.9067963496599997</v>
+      </c>
+      <c r="G95">
+        <v>0.03824140960837036</v>
+      </c>
+      <c r="H95">
+        <v>-0.09252785121216732</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1762992056382422</v>
+        <v>0.171853270137631</v>
       </c>
       <c r="C98">
-        <v>0.02521302328426741</v>
+        <v>0.05331910123859671</v>
       </c>
       <c r="D98">
-        <v>-0.1170611181788851</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.132346889232197</v>
+      </c>
+      <c r="E98">
+        <v>0.2860307643431468</v>
+      </c>
+      <c r="F98">
+        <v>0.09320604117455686</v>
+      </c>
+      <c r="G98">
+        <v>0.009410478776792689</v>
+      </c>
+      <c r="H98">
+        <v>-0.02440192813900812</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.00601686861689715</v>
+        <v>0.007501219352583445</v>
       </c>
       <c r="C101">
-        <v>0.017502089782669</v>
+        <v>0.02187685317065152</v>
       </c>
       <c r="D101">
-        <v>-0.06588269554234877</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.0786557644187061</v>
+      </c>
+      <c r="E101">
+        <v>-0.05040735921196172</v>
+      </c>
+      <c r="F101">
+        <v>-0.0003625866985029192</v>
+      </c>
+      <c r="G101">
+        <v>0.04296830630126134</v>
+      </c>
+      <c r="H101">
+        <v>0.07151240319986972</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1290900621752016</v>
+        <v>0.1181548204779163</v>
       </c>
       <c r="C102">
-        <v>0.09286171754331446</v>
+        <v>0.1126496105005701</v>
       </c>
       <c r="D102">
-        <v>0.03233392402916295</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05421146869318699</v>
+      </c>
+      <c r="E102">
+        <v>-0.02728475771537008</v>
+      </c>
+      <c r="F102">
+        <v>-0.01929976086923261</v>
+      </c>
+      <c r="G102">
+        <v>0.04642692455711822</v>
+      </c>
+      <c r="H102">
+        <v>-0.01279721990299815</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
